--- a/bb_tem_finish.xlsx
+++ b/bb_tem_finish.xlsx
@@ -951,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AZ44"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -998,6 +998,19 @@
     <col width="8.08" customWidth="1" style="48" min="37" max="37"/>
     <col width="8.08" customWidth="1" style="48" min="38" max="38"/>
     <col width="8.08" customWidth="1" style="48" min="39" max="39"/>
+    <col width="1" customWidth="1" style="48" min="40" max="40"/>
+    <col width="5.67" customWidth="1" style="48" min="41" max="41"/>
+    <col width="8.42" customWidth="1" style="48" min="42" max="42"/>
+    <col width="5.67" customWidth="1" style="48" min="43" max="43"/>
+    <col width="4" customWidth="1" style="48" min="44" max="44"/>
+    <col width="0.84" customWidth="1" style="48" min="45" max="45"/>
+    <col width="8.08" customWidth="1" style="48" min="46" max="46"/>
+    <col width="8.08" customWidth="1" style="48" min="47" max="47"/>
+    <col width="8.08" customWidth="1" style="48" min="48" max="48"/>
+    <col width="8.08" customWidth="1" style="48" min="49" max="49"/>
+    <col width="8.08" customWidth="1" style="48" min="50" max="50"/>
+    <col width="8.08" customWidth="1" style="48" min="51" max="51"/>
+    <col width="8.08" customWidth="1" style="48" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" s="48">
@@ -1052,6 +1065,23 @@
       <c r="AK1" s="2" t="n"/>
       <c r="AL1" s="2" t="n"/>
       <c r="AM1" s="3" t="n"/>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> B B 肥 料</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="3" t="n"/>
     </row>
     <row r="2" ht="9.4" customHeight="1" s="48">
       <c r="A2" s="5" t="n"/>
@@ -1090,6 +1120,18 @@
       <c r="AJ2" s="5" t="n"/>
       <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="5" t="n"/>
+      <c r="AN2" s="5" t="n"/>
+      <c r="AO2" s="5" t="n"/>
+      <c r="AP2" s="5" t="n"/>
+      <c r="AQ2" s="5" t="n"/>
+      <c r="AR2" s="5" t="n"/>
+      <c r="AS2" s="5" t="n"/>
+      <c r="AT2" s="5" t="n"/>
+      <c r="AU2" s="5" t="n"/>
+      <c r="AV2" s="5" t="n"/>
+      <c r="AW2" s="5" t="n"/>
+      <c r="AX2" s="5" t="n"/>
+      <c r="AY2" s="5" t="n"/>
     </row>
     <row r="3" ht="9.4" customHeight="1" s="48">
       <c r="A3" s="6" t="n"/>
@@ -1131,6 +1173,19 @@
       <c r="AK3" s="6" t="n"/>
       <c r="AL3" s="6" t="n"/>
       <c r="AM3" s="7" t="n"/>
+      <c r="AN3" s="6" t="n"/>
+      <c r="AO3" s="6" t="n"/>
+      <c r="AP3" s="6" t="n"/>
+      <c r="AQ3" s="6" t="n"/>
+      <c r="AR3" s="6" t="n"/>
+      <c r="AS3" s="6" t="n"/>
+      <c r="AT3" s="6" t="n"/>
+      <c r="AU3" s="6" t="n"/>
+      <c r="AV3" s="6" t="n"/>
+      <c r="AW3" s="6" t="n"/>
+      <c r="AX3" s="6" t="n"/>
+      <c r="AY3" s="6" t="n"/>
+      <c r="AZ3" s="7" t="n"/>
     </row>
     <row r="4" ht="20.15" customHeight="1" s="48">
       <c r="A4" s="40" t="inlineStr">
@@ -1241,6 +1296,42 @@
           <t>被覆尿素</t>
         </is>
       </c>
+      <c r="AN4" s="40" t="inlineStr">
+        <is>
+          <t>直一発K20号</t>
+        </is>
+      </c>
+      <c r="AO4" s="40" t="n"/>
+      <c r="AP4" s="40" t="n"/>
+      <c r="AQ4" s="40" t="n"/>
+      <c r="AR4" s="40" t="n"/>
+      <c r="AS4" s="8" t="n"/>
+      <c r="AT4" s="42" t="n"/>
+      <c r="AU4" s="9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV4" s="9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AW4" s="9" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AX4" s="9" t="inlineStr">
+        <is>
+          <t>速効性N</t>
+        </is>
+      </c>
+      <c r="AY4" s="9" t="inlineStr">
+        <is>
+          <t>被覆尿素</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="33.5" customHeight="1" s="48">
       <c r="G5" s="43" t="inlineStr">
@@ -1315,6 +1406,30 @@
       <c r="AL5" s="49" t="n">
         <v>21.5</v>
       </c>
+      <c r="AT5" s="43" t="inlineStr">
+        <is>
+          <t>成分</t>
+        </is>
+      </c>
+      <c r="AU5" s="44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AV5" s="44" t="inlineStr">
+        <is>
+          <t>１２</t>
+        </is>
+      </c>
+      <c r="AW5" s="44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX5" s="49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AY5" s="49" t="n">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="6" ht="20.15" customHeight="1" s="48">
       <c r="G6" s="10" t="inlineStr">
@@ -1350,6 +1465,17 @@
         </is>
       </c>
       <c r="AL6" s="12" t="n"/>
+      <c r="AT6" s="10" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="AU6" s="46" t="inlineStr">
+        <is>
+          <t>容量:20㎏</t>
+        </is>
+      </c>
+      <c r="AY6" s="12" t="n"/>
     </row>
     <row r="7">
       <c r="G7" s="14" t="n"/>
@@ -1370,6 +1496,12 @@
       <c r="AJ7" s="13" t="n"/>
       <c r="AK7" s="13" t="n"/>
       <c r="AL7" s="13" t="n"/>
+      <c r="AT7" s="14" t="n"/>
+      <c r="AU7" s="11" t="n"/>
+      <c r="AV7" s="13" t="n"/>
+      <c r="AW7" s="13" t="n"/>
+      <c r="AX7" s="13" t="n"/>
+      <c r="AY7" s="13" t="n"/>
     </row>
     <row r="8">
       <c r="G8" s="15" t="inlineStr">
@@ -1405,6 +1537,17 @@
       <c r="AK8" s="15" t="n"/>
       <c r="AL8" s="15" t="n"/>
       <c r="AM8" s="3" t="n"/>
+      <c r="AT8" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　特 徴</t>
+        </is>
+      </c>
+      <c r="AU8" s="15" t="n"/>
+      <c r="AV8" s="15" t="n"/>
+      <c r="AW8" s="15" t="n"/>
+      <c r="AX8" s="15" t="n"/>
+      <c r="AY8" s="15" t="n"/>
+      <c r="AZ8" s="3" t="n"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" s="48">
       <c r="G9" t="inlineStr">
@@ -1422,6 +1565,11 @@
           <t>●通常のNSコートに比べ後半の肥効を重視した肥料です</t>
         </is>
       </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>●直播での栽培をされる方におすすめ</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="20.15" customHeight="1" s="48">
       <c r="G10" t="inlineStr">
@@ -1437,6 +1585,11 @@
       <c r="AG10" t="inlineStr">
         <is>
           <t>●高窒素成分で省力的施肥が可能です</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>●比較的冷涼な地域(寒地)で使用すると効果的です</t>
         </is>
       </c>
     </row>
@@ -1450,6 +1603,9 @@
       <c r="AG11" t="n">
         <v/>
       </c>
+      <c r="AT11" t="n">
+        <v/>
+      </c>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="48">
       <c r="G12" t="n">
@@ -1461,6 +1617,9 @@
       <c r="AG12" t="n">
         <v/>
       </c>
+      <c r="AT12" t="n">
+        <v/>
+      </c>
     </row>
     <row r="13" ht="20.15" customHeight="1" s="48">
       <c r="G13" t="n">
@@ -1470,6 +1629,9 @@
         <v/>
       </c>
       <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AT13" t="n">
         <v/>
       </c>
     </row>
@@ -1493,6 +1655,12 @@
       <c r="AJ15" s="16" t="n"/>
       <c r="AK15" s="16" t="n"/>
       <c r="AL15" s="16" t="n"/>
+      <c r="AT15" s="16" t="n"/>
+      <c r="AU15" s="16" t="n"/>
+      <c r="AV15" s="16" t="n"/>
+      <c r="AW15" s="16" t="n"/>
+      <c r="AX15" s="16" t="n"/>
+      <c r="AY15" s="16" t="n"/>
     </row>
     <row r="16" ht="5.15" customHeight="1" s="48">
       <c r="G16" s="17" t="n"/>
@@ -1513,6 +1681,12 @@
       <c r="AJ16" s="17" t="n"/>
       <c r="AK16" s="17" t="n"/>
       <c r="AL16" s="17" t="n"/>
+      <c r="AT16" s="17" t="n"/>
+      <c r="AU16" s="17" t="n"/>
+      <c r="AV16" s="17" t="n"/>
+      <c r="AW16" s="17" t="n"/>
+      <c r="AX16" s="17" t="n"/>
+      <c r="AY16" s="17" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="48">
       <c r="B17" s="6" t="inlineStr">
@@ -1548,6 +1722,17 @@
       <c r="AJ17" s="18" t="n"/>
       <c r="AK17" s="18" t="n"/>
       <c r="AL17" s="18" t="n"/>
+      <c r="AO17" s="6" t="inlineStr">
+        <is>
+          <t>栽培適正:</t>
+        </is>
+      </c>
+      <c r="AT17" s="18" t="n"/>
+      <c r="AU17" s="18" t="n"/>
+      <c r="AV17" s="18" t="n"/>
+      <c r="AW17" s="18" t="n"/>
+      <c r="AX17" s="18" t="n"/>
+      <c r="AY17" s="18" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="48">
       <c r="B18" s="41" t="inlineStr">
@@ -1592,6 +1777,20 @@
       <c r="AJ18" s="18" t="n"/>
       <c r="AK18" s="18" t="n"/>
       <c r="AL18" s="18" t="n"/>
+      <c r="AO18" s="41" t="inlineStr">
+        <is>
+          <t>品種:</t>
+        </is>
+      </c>
+      <c r="AP18" s="32" t="n"/>
+      <c r="AQ18" s="32" t="n"/>
+      <c r="AR18" s="33" t="n"/>
+      <c r="AT18" s="18" t="n"/>
+      <c r="AU18" s="18" t="n"/>
+      <c r="AV18" s="18" t="n"/>
+      <c r="AW18" s="18" t="n"/>
+      <c r="AX18" s="18" t="n"/>
+      <c r="AY18" s="18" t="n"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="48">
       <c r="B19" s="34" t="n"/>
@@ -1624,6 +1823,16 @@
       <c r="AJ19" s="18" t="n"/>
       <c r="AK19" s="18" t="n"/>
       <c r="AL19" s="18" t="n"/>
+      <c r="AO19" s="34" t="n"/>
+      <c r="AP19" s="35" t="n"/>
+      <c r="AQ19" s="35" t="n"/>
+      <c r="AR19" s="36" t="n"/>
+      <c r="AT19" s="18" t="n"/>
+      <c r="AU19" s="18" t="n"/>
+      <c r="AV19" s="18" t="n"/>
+      <c r="AW19" s="18" t="n"/>
+      <c r="AX19" s="18" t="n"/>
+      <c r="AY19" s="18" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="48">
       <c r="B20" s="34" t="n"/>
@@ -1656,6 +1865,16 @@
       <c r="AJ20" s="18" t="n"/>
       <c r="AK20" s="18" t="n"/>
       <c r="AL20" s="18" t="n"/>
+      <c r="AO20" s="34" t="n"/>
+      <c r="AP20" s="35" t="n"/>
+      <c r="AQ20" s="35" t="n"/>
+      <c r="AR20" s="36" t="n"/>
+      <c r="AT20" s="18" t="n"/>
+      <c r="AU20" s="18" t="n"/>
+      <c r="AV20" s="18" t="n"/>
+      <c r="AW20" s="18" t="n"/>
+      <c r="AX20" s="18" t="n"/>
+      <c r="AY20" s="18" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="48">
       <c r="B21" s="37" t="n"/>
@@ -1688,6 +1907,16 @@
       <c r="AJ21" s="18" t="n"/>
       <c r="AK21" s="18" t="n"/>
       <c r="AL21" s="18" t="n"/>
+      <c r="AO21" s="37" t="n"/>
+      <c r="AP21" s="38" t="n"/>
+      <c r="AQ21" s="38" t="n"/>
+      <c r="AR21" s="39" t="n"/>
+      <c r="AT21" s="18" t="n"/>
+      <c r="AU21" s="18" t="n"/>
+      <c r="AV21" s="18" t="n"/>
+      <c r="AW21" s="18" t="n"/>
+      <c r="AX21" s="18" t="n"/>
+      <c r="AY21" s="18" t="n"/>
     </row>
     <row r="22" ht="9.4" customHeight="1" s="48">
       <c r="A22" s="19" t="n"/>
@@ -1726,6 +1955,18 @@
       <c r="AJ22" s="21" t="n"/>
       <c r="AK22" s="21" t="n"/>
       <c r="AL22" s="21" t="n"/>
+      <c r="AN22" s="19" t="n"/>
+      <c r="AO22" s="19" t="n"/>
+      <c r="AP22" s="19" t="n"/>
+      <c r="AQ22" s="19" t="n"/>
+      <c r="AR22" s="19" t="n"/>
+      <c r="AS22" s="19" t="n"/>
+      <c r="AT22" s="20" t="n"/>
+      <c r="AU22" s="21" t="n"/>
+      <c r="AV22" s="21" t="n"/>
+      <c r="AW22" s="21" t="n"/>
+      <c r="AX22" s="21" t="n"/>
+      <c r="AY22" s="21" t="n"/>
     </row>
     <row r="23" ht="9.4" customHeight="1" s="48">
       <c r="G23" s="22" t="n"/>
@@ -1734,6 +1975,8 @@
       <c r="Z23" s="7" t="n"/>
       <c r="AG23" s="22" t="n"/>
       <c r="AM23" s="7" t="n"/>
+      <c r="AT23" s="22" t="n"/>
+      <c r="AZ23" s="7" t="n"/>
     </row>
     <row r="24" ht="20.15" customHeight="1" s="48">
       <c r="A24" s="40" t="inlineStr">
@@ -1808,19 +2051,55 @@
           <t>被覆尿素</t>
         </is>
       </c>
-      <c r="AA24" s="50" t="n"/>
-      <c r="AB24" s="50" t="n"/>
-      <c r="AC24" s="50" t="n"/>
-      <c r="AD24" s="50" t="n"/>
-      <c r="AE24" s="50" t="n"/>
-      <c r="AF24" s="51" t="n"/>
-      <c r="AG24" s="50" t="n"/>
-      <c r="AH24" s="51" t="n"/>
-      <c r="AI24" s="51" t="n"/>
-      <c r="AJ24" s="51" t="n"/>
-      <c r="AK24" s="51" t="n"/>
-      <c r="AL24" s="51" t="n"/>
-      <c r="AM24" s="52" t="n"/>
+      <c r="AA24" s="40" t="inlineStr">
+        <is>
+          <t>NSコート蛍N13</t>
+        </is>
+      </c>
+      <c r="AB24" s="40" t="n"/>
+      <c r="AC24" s="40" t="n"/>
+      <c r="AD24" s="40" t="n"/>
+      <c r="AE24" s="40" t="n"/>
+      <c r="AF24" s="8" t="n"/>
+      <c r="AG24" s="42" t="n"/>
+      <c r="AH24" s="9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AI24" s="9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AJ24" s="9" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AK24" s="9" t="inlineStr">
+        <is>
+          <t>速効性N</t>
+        </is>
+      </c>
+      <c r="AL24" s="9" t="inlineStr">
+        <is>
+          <t>被覆尿素</t>
+        </is>
+      </c>
+      <c r="AN24" s="50" t="n"/>
+      <c r="AO24" s="50" t="n"/>
+      <c r="AP24" s="50" t="n"/>
+      <c r="AQ24" s="50" t="n"/>
+      <c r="AR24" s="50" t="n"/>
+      <c r="AS24" s="51" t="n"/>
+      <c r="AT24" s="50" t="n"/>
+      <c r="AU24" s="51" t="n"/>
+      <c r="AV24" s="51" t="n"/>
+      <c r="AW24" s="51" t="n"/>
+      <c r="AX24" s="51" t="n"/>
+      <c r="AY24" s="51" t="n"/>
+      <c r="AZ24" s="52" t="n"/>
     </row>
     <row r="25" ht="34.25" customHeight="1" s="48">
       <c r="G25" s="43" t="inlineStr">
@@ -1871,19 +2150,43 @@
       <c r="Y25" s="47" t="n">
         <v>15.9</v>
       </c>
-      <c r="AA25" s="52" t="n"/>
-      <c r="AB25" s="52" t="n"/>
-      <c r="AC25" s="52" t="n"/>
-      <c r="AD25" s="52" t="n"/>
-      <c r="AE25" s="52" t="n"/>
-      <c r="AF25" s="52" t="n"/>
-      <c r="AG25" s="53" t="n"/>
-      <c r="AH25" s="51" t="n"/>
-      <c r="AI25" s="51" t="n"/>
-      <c r="AJ25" s="51" t="n"/>
-      <c r="AK25" s="51" t="n"/>
-      <c r="AL25" s="51" t="n"/>
-      <c r="AM25" s="52" t="n"/>
+      <c r="AG25" s="43" t="inlineStr">
+        <is>
+          <t>成分</t>
+        </is>
+      </c>
+      <c r="AH25" s="47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 </t>
+        </is>
+      </c>
+      <c r="AI25" s="47" t="inlineStr">
+        <is>
+          <t>９</t>
+        </is>
+      </c>
+      <c r="AJ25" s="47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK25" s="47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL25" s="47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AN25" s="52" t="n"/>
+      <c r="AO25" s="52" t="n"/>
+      <c r="AP25" s="52" t="n"/>
+      <c r="AQ25" s="52" t="n"/>
+      <c r="AR25" s="52" t="n"/>
+      <c r="AS25" s="52" t="n"/>
+      <c r="AT25" s="53" t="n"/>
+      <c r="AU25" s="51" t="n"/>
+      <c r="AV25" s="51" t="n"/>
+      <c r="AW25" s="51" t="n"/>
+      <c r="AX25" s="51" t="n"/>
+      <c r="AY25" s="51" t="n"/>
+      <c r="AZ25" s="52" t="n"/>
     </row>
     <row r="26" ht="20.15" customHeight="1" s="48">
       <c r="G26" s="23" t="inlineStr">
@@ -1914,34 +2217,48 @@
       <c r="W26" s="25" t="n"/>
       <c r="X26" s="25" t="n"/>
       <c r="Y26" s="26" t="n"/>
-      <c r="AA26" s="52" t="n"/>
-      <c r="AB26" s="52" t="n"/>
-      <c r="AC26" s="52" t="n"/>
-      <c r="AD26" s="52" t="n"/>
-      <c r="AE26" s="52" t="n"/>
-      <c r="AF26" s="52" t="n"/>
-      <c r="AG26" s="51" t="n"/>
-      <c r="AH26" s="54" t="n"/>
-      <c r="AI26" s="54" t="n"/>
-      <c r="AJ26" s="54" t="n"/>
-      <c r="AK26" s="54" t="n"/>
-      <c r="AL26" s="54" t="n"/>
-      <c r="AM26" s="52" t="n"/>
+      <c r="AG26" s="23" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+      <c r="AH26" s="24" t="inlineStr">
+        <is>
+          <t>容量:15㎏</t>
+        </is>
+      </c>
+      <c r="AI26" s="25" t="n"/>
+      <c r="AJ26" s="25" t="n"/>
+      <c r="AK26" s="25" t="n"/>
+      <c r="AL26" s="26" t="n"/>
+      <c r="AN26" s="52" t="n"/>
+      <c r="AO26" s="52" t="n"/>
+      <c r="AP26" s="52" t="n"/>
+      <c r="AQ26" s="52" t="n"/>
+      <c r="AR26" s="52" t="n"/>
+      <c r="AS26" s="52" t="n"/>
+      <c r="AT26" s="51" t="n"/>
+      <c r="AU26" s="54" t="n"/>
+      <c r="AV26" s="54" t="n"/>
+      <c r="AW26" s="54" t="n"/>
+      <c r="AX26" s="54" t="n"/>
+      <c r="AY26" s="54" t="n"/>
+      <c r="AZ26" s="52" t="n"/>
     </row>
     <row r="27">
-      <c r="AA27" s="52" t="n"/>
-      <c r="AB27" s="52" t="n"/>
-      <c r="AC27" s="52" t="n"/>
-      <c r="AD27" s="52" t="n"/>
-      <c r="AE27" s="52" t="n"/>
-      <c r="AF27" s="52" t="n"/>
-      <c r="AG27" s="52" t="n"/>
-      <c r="AH27" s="52" t="n"/>
-      <c r="AI27" s="52" t="n"/>
-      <c r="AJ27" s="52" t="n"/>
-      <c r="AK27" s="52" t="n"/>
-      <c r="AL27" s="52" t="n"/>
-      <c r="AM27" s="52" t="n"/>
+      <c r="AN27" s="52" t="n"/>
+      <c r="AO27" s="52" t="n"/>
+      <c r="AP27" s="52" t="n"/>
+      <c r="AQ27" s="52" t="n"/>
+      <c r="AR27" s="52" t="n"/>
+      <c r="AS27" s="52" t="n"/>
+      <c r="AT27" s="52" t="n"/>
+      <c r="AU27" s="52" t="n"/>
+      <c r="AV27" s="52" t="n"/>
+      <c r="AW27" s="52" t="n"/>
+      <c r="AX27" s="52" t="n"/>
+      <c r="AY27" s="52" t="n"/>
+      <c r="AZ27" s="52" t="n"/>
     </row>
     <row r="28">
       <c r="G28" s="27" t="inlineStr">
@@ -1966,19 +2283,30 @@
       <c r="X28" s="27" t="n"/>
       <c r="Y28" s="27" t="n"/>
       <c r="Z28" s="3" t="n"/>
-      <c r="AA28" s="52" t="n"/>
-      <c r="AB28" s="52" t="n"/>
-      <c r="AC28" s="52" t="n"/>
-      <c r="AD28" s="52" t="n"/>
-      <c r="AE28" s="52" t="n"/>
-      <c r="AF28" s="52" t="n"/>
-      <c r="AG28" s="54" t="n"/>
-      <c r="AH28" s="54" t="n"/>
-      <c r="AI28" s="54" t="n"/>
-      <c r="AJ28" s="54" t="n"/>
-      <c r="AK28" s="54" t="n"/>
-      <c r="AL28" s="54" t="n"/>
-      <c r="AM28" s="54" t="n"/>
+      <c r="AG28" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　特 徴</t>
+        </is>
+      </c>
+      <c r="AH28" s="27" t="n"/>
+      <c r="AI28" s="27" t="n"/>
+      <c r="AJ28" s="27" t="n"/>
+      <c r="AK28" s="27" t="n"/>
+      <c r="AL28" s="27" t="n"/>
+      <c r="AM28" s="3" t="n"/>
+      <c r="AN28" s="52" t="n"/>
+      <c r="AO28" s="52" t="n"/>
+      <c r="AP28" s="52" t="n"/>
+      <c r="AQ28" s="52" t="n"/>
+      <c r="AR28" s="52" t="n"/>
+      <c r="AS28" s="52" t="n"/>
+      <c r="AT28" s="54" t="n"/>
+      <c r="AU28" s="54" t="n"/>
+      <c r="AV28" s="54" t="n"/>
+      <c r="AW28" s="54" t="n"/>
+      <c r="AX28" s="54" t="n"/>
+      <c r="AY28" s="54" t="n"/>
+      <c r="AZ28" s="54" t="n"/>
     </row>
     <row r="29" ht="20.15" customHeight="1" s="48">
       <c r="G29" t="inlineStr">
@@ -1991,19 +2319,24 @@
           <t>●コシヒカリの生育に合わせて設計しております</t>
         </is>
       </c>
-      <c r="AA29" s="52" t="n"/>
-      <c r="AB29" s="52" t="n"/>
-      <c r="AC29" s="52" t="n"/>
-      <c r="AD29" s="52" t="n"/>
-      <c r="AE29" s="52" t="n"/>
-      <c r="AF29" s="52" t="n"/>
-      <c r="AG29" s="52" t="n"/>
-      <c r="AH29" s="52" t="n"/>
-      <c r="AI29" s="52" t="n"/>
-      <c r="AJ29" s="52" t="n"/>
-      <c r="AK29" s="52" t="n"/>
-      <c r="AL29" s="52" t="n"/>
-      <c r="AM29" s="52" t="n"/>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>●良食味米に適した肥料</t>
+        </is>
+      </c>
+      <c r="AN29" s="52" t="n"/>
+      <c r="AO29" s="52" t="n"/>
+      <c r="AP29" s="52" t="n"/>
+      <c r="AQ29" s="52" t="n"/>
+      <c r="AR29" s="52" t="n"/>
+      <c r="AS29" s="52" t="n"/>
+      <c r="AT29" s="52" t="n"/>
+      <c r="AU29" s="52" t="n"/>
+      <c r="AV29" s="52" t="n"/>
+      <c r="AW29" s="52" t="n"/>
+      <c r="AX29" s="52" t="n"/>
+      <c r="AY29" s="52" t="n"/>
+      <c r="AZ29" s="52" t="n"/>
     </row>
     <row r="30" ht="20.15" customHeight="1" s="48">
       <c r="G30" t="inlineStr">
@@ -2016,19 +2349,24 @@
           <t>●窒素成分が高いことで元気な稲づくりに貢献します</t>
         </is>
       </c>
-      <c r="AA30" s="52" t="n"/>
-      <c r="AB30" s="52" t="n"/>
-      <c r="AC30" s="52" t="n"/>
-      <c r="AD30" s="52" t="n"/>
-      <c r="AE30" s="52" t="n"/>
-      <c r="AF30" s="52" t="n"/>
-      <c r="AG30" s="52" t="n"/>
-      <c r="AH30" s="52" t="n"/>
-      <c r="AI30" s="52" t="n"/>
-      <c r="AJ30" s="52" t="n"/>
-      <c r="AK30" s="52" t="n"/>
-      <c r="AL30" s="52" t="n"/>
-      <c r="AM30" s="52" t="n"/>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>●初期生育が充実するよう、有機体・速効性窒素をバランスよく配合</t>
+        </is>
+      </c>
+      <c r="AN30" s="52" t="n"/>
+      <c r="AO30" s="52" t="n"/>
+      <c r="AP30" s="52" t="n"/>
+      <c r="AQ30" s="52" t="n"/>
+      <c r="AR30" s="52" t="n"/>
+      <c r="AS30" s="52" t="n"/>
+      <c r="AT30" s="52" t="n"/>
+      <c r="AU30" s="52" t="n"/>
+      <c r="AV30" s="52" t="n"/>
+      <c r="AW30" s="52" t="n"/>
+      <c r="AX30" s="52" t="n"/>
+      <c r="AY30" s="52" t="n"/>
+      <c r="AZ30" s="52" t="n"/>
     </row>
     <row r="31" ht="20.15" customHeight="1" s="48">
       <c r="G31" t="inlineStr">
@@ -2039,19 +2377,22 @@
       <c r="T31" t="n">
         <v/>
       </c>
-      <c r="AA31" s="52" t="n"/>
-      <c r="AB31" s="52" t="n"/>
-      <c r="AC31" s="52" t="n"/>
-      <c r="AD31" s="52" t="n"/>
-      <c r="AE31" s="52" t="n"/>
-      <c r="AF31" s="52" t="n"/>
-      <c r="AG31" s="52" t="n"/>
-      <c r="AH31" s="52" t="n"/>
-      <c r="AI31" s="52" t="n"/>
-      <c r="AJ31" s="52" t="n"/>
-      <c r="AK31" s="52" t="n"/>
-      <c r="AL31" s="52" t="n"/>
-      <c r="AM31" s="52" t="n"/>
+      <c r="AG31" t="n">
+        <v/>
+      </c>
+      <c r="AN31" s="52" t="n"/>
+      <c r="AO31" s="52" t="n"/>
+      <c r="AP31" s="52" t="n"/>
+      <c r="AQ31" s="52" t="n"/>
+      <c r="AR31" s="52" t="n"/>
+      <c r="AS31" s="52" t="n"/>
+      <c r="AT31" s="52" t="n"/>
+      <c r="AU31" s="52" t="n"/>
+      <c r="AV31" s="52" t="n"/>
+      <c r="AW31" s="52" t="n"/>
+      <c r="AX31" s="52" t="n"/>
+      <c r="AY31" s="52" t="n"/>
+      <c r="AZ31" s="52" t="n"/>
     </row>
     <row r="32" ht="20.15" customHeight="1" s="48">
       <c r="G32" t="inlineStr">
@@ -2062,19 +2403,22 @@
       <c r="T32" t="n">
         <v/>
       </c>
-      <c r="AA32" s="52" t="n"/>
-      <c r="AB32" s="52" t="n"/>
-      <c r="AC32" s="52" t="n"/>
-      <c r="AD32" s="52" t="n"/>
-      <c r="AE32" s="52" t="n"/>
-      <c r="AF32" s="52" t="n"/>
-      <c r="AG32" s="52" t="n"/>
-      <c r="AH32" s="52" t="n"/>
-      <c r="AI32" s="52" t="n"/>
-      <c r="AJ32" s="52" t="n"/>
-      <c r="AK32" s="52" t="n"/>
-      <c r="AL32" s="52" t="n"/>
-      <c r="AM32" s="52" t="n"/>
+      <c r="AG32" t="n">
+        <v/>
+      </c>
+      <c r="AN32" s="52" t="n"/>
+      <c r="AO32" s="52" t="n"/>
+      <c r="AP32" s="52" t="n"/>
+      <c r="AQ32" s="52" t="n"/>
+      <c r="AR32" s="52" t="n"/>
+      <c r="AS32" s="52" t="n"/>
+      <c r="AT32" s="52" t="n"/>
+      <c r="AU32" s="52" t="n"/>
+      <c r="AV32" s="52" t="n"/>
+      <c r="AW32" s="52" t="n"/>
+      <c r="AX32" s="52" t="n"/>
+      <c r="AY32" s="52" t="n"/>
+      <c r="AZ32" s="52" t="n"/>
     </row>
     <row r="33" ht="20.15" customHeight="1" s="48">
       <c r="G33" t="n">
@@ -2083,34 +2427,37 @@
       <c r="T33" t="n">
         <v/>
       </c>
-      <c r="AA33" s="52" t="n"/>
-      <c r="AB33" s="52" t="n"/>
-      <c r="AC33" s="52" t="n"/>
-      <c r="AD33" s="52" t="n"/>
-      <c r="AE33" s="52" t="n"/>
-      <c r="AF33" s="52" t="n"/>
-      <c r="AG33" s="52" t="n"/>
-      <c r="AH33" s="52" t="n"/>
-      <c r="AI33" s="52" t="n"/>
-      <c r="AJ33" s="52" t="n"/>
-      <c r="AK33" s="52" t="n"/>
-      <c r="AL33" s="52" t="n"/>
-      <c r="AM33" s="52" t="n"/>
+      <c r="AG33" t="n">
+        <v/>
+      </c>
+      <c r="AN33" s="52" t="n"/>
+      <c r="AO33" s="52" t="n"/>
+      <c r="AP33" s="52" t="n"/>
+      <c r="AQ33" s="52" t="n"/>
+      <c r="AR33" s="52" t="n"/>
+      <c r="AS33" s="52" t="n"/>
+      <c r="AT33" s="52" t="n"/>
+      <c r="AU33" s="52" t="n"/>
+      <c r="AV33" s="52" t="n"/>
+      <c r="AW33" s="52" t="n"/>
+      <c r="AX33" s="52" t="n"/>
+      <c r="AY33" s="52" t="n"/>
+      <c r="AZ33" s="52" t="n"/>
     </row>
     <row r="34">
-      <c r="AA34" s="52" t="n"/>
-      <c r="AB34" s="52" t="n"/>
-      <c r="AC34" s="52" t="n"/>
-      <c r="AD34" s="52" t="n"/>
-      <c r="AE34" s="52" t="n"/>
-      <c r="AF34" s="52" t="n"/>
-      <c r="AG34" s="52" t="n"/>
-      <c r="AH34" s="52" t="n"/>
-      <c r="AI34" s="52" t="n"/>
-      <c r="AJ34" s="52" t="n"/>
-      <c r="AK34" s="52" t="n"/>
-      <c r="AL34" s="52" t="n"/>
-      <c r="AM34" s="52" t="n"/>
+      <c r="AN34" s="52" t="n"/>
+      <c r="AO34" s="52" t="n"/>
+      <c r="AP34" s="52" t="n"/>
+      <c r="AQ34" s="52" t="n"/>
+      <c r="AR34" s="52" t="n"/>
+      <c r="AS34" s="52" t="n"/>
+      <c r="AT34" s="52" t="n"/>
+      <c r="AU34" s="52" t="n"/>
+      <c r="AV34" s="52" t="n"/>
+      <c r="AW34" s="52" t="n"/>
+      <c r="AX34" s="52" t="n"/>
+      <c r="AY34" s="52" t="n"/>
+      <c r="AZ34" s="52" t="n"/>
     </row>
     <row r="35">
       <c r="G35" s="28" t="n"/>
@@ -2125,19 +2472,25 @@
       <c r="W35" s="28" t="n"/>
       <c r="X35" s="28" t="n"/>
       <c r="Y35" s="28" t="n"/>
-      <c r="AA35" s="52" t="n"/>
-      <c r="AB35" s="52" t="n"/>
-      <c r="AC35" s="52" t="n"/>
-      <c r="AD35" s="52" t="n"/>
-      <c r="AE35" s="52" t="n"/>
-      <c r="AF35" s="52" t="n"/>
-      <c r="AG35" s="54" t="n"/>
-      <c r="AH35" s="54" t="n"/>
-      <c r="AI35" s="54" t="n"/>
-      <c r="AJ35" s="54" t="n"/>
-      <c r="AK35" s="54" t="n"/>
-      <c r="AL35" s="54" t="n"/>
-      <c r="AM35" s="52" t="n"/>
+      <c r="AG35" s="28" t="n"/>
+      <c r="AH35" s="28" t="n"/>
+      <c r="AI35" s="28" t="n"/>
+      <c r="AJ35" s="28" t="n"/>
+      <c r="AK35" s="28" t="n"/>
+      <c r="AL35" s="28" t="n"/>
+      <c r="AN35" s="52" t="n"/>
+      <c r="AO35" s="52" t="n"/>
+      <c r="AP35" s="52" t="n"/>
+      <c r="AQ35" s="52" t="n"/>
+      <c r="AR35" s="52" t="n"/>
+      <c r="AS35" s="52" t="n"/>
+      <c r="AT35" s="54" t="n"/>
+      <c r="AU35" s="54" t="n"/>
+      <c r="AV35" s="54" t="n"/>
+      <c r="AW35" s="54" t="n"/>
+      <c r="AX35" s="54" t="n"/>
+      <c r="AY35" s="54" t="n"/>
+      <c r="AZ35" s="52" t="n"/>
     </row>
     <row r="36" ht="5.15" customHeight="1" s="48">
       <c r="G36" s="29" t="n"/>
@@ -2152,19 +2505,25 @@
       <c r="W36" s="29" t="n"/>
       <c r="X36" s="29" t="n"/>
       <c r="Y36" s="29" t="n"/>
-      <c r="AA36" s="52" t="n"/>
-      <c r="AB36" s="52" t="n"/>
-      <c r="AC36" s="52" t="n"/>
-      <c r="AD36" s="52" t="n"/>
-      <c r="AE36" s="52" t="n"/>
-      <c r="AF36" s="52" t="n"/>
-      <c r="AG36" s="55" t="n"/>
-      <c r="AH36" s="55" t="n"/>
-      <c r="AI36" s="55" t="n"/>
-      <c r="AJ36" s="55" t="n"/>
-      <c r="AK36" s="55" t="n"/>
-      <c r="AL36" s="55" t="n"/>
-      <c r="AM36" s="52" t="n"/>
+      <c r="AG36" s="29" t="n"/>
+      <c r="AH36" s="29" t="n"/>
+      <c r="AI36" s="29" t="n"/>
+      <c r="AJ36" s="29" t="n"/>
+      <c r="AK36" s="29" t="n"/>
+      <c r="AL36" s="29" t="n"/>
+      <c r="AN36" s="52" t="n"/>
+      <c r="AO36" s="52" t="n"/>
+      <c r="AP36" s="52" t="n"/>
+      <c r="AQ36" s="52" t="n"/>
+      <c r="AR36" s="52" t="n"/>
+      <c r="AS36" s="52" t="n"/>
+      <c r="AT36" s="55" t="n"/>
+      <c r="AU36" s="55" t="n"/>
+      <c r="AV36" s="55" t="n"/>
+      <c r="AW36" s="55" t="n"/>
+      <c r="AX36" s="55" t="n"/>
+      <c r="AY36" s="55" t="n"/>
+      <c r="AZ36" s="52" t="n"/>
     </row>
     <row r="37" ht="20.15" customHeight="1" s="48">
       <c r="B37" s="6" t="inlineStr">
@@ -2179,19 +2538,25 @@
         </is>
       </c>
       <c r="T37" s="22" t="n"/>
-      <c r="AA37" s="52" t="n"/>
-      <c r="AB37" s="55" t="n"/>
-      <c r="AC37" s="52" t="n"/>
-      <c r="AD37" s="52" t="n"/>
-      <c r="AE37" s="52" t="n"/>
-      <c r="AF37" s="52" t="n"/>
-      <c r="AG37" s="51" t="n"/>
-      <c r="AH37" s="52" t="n"/>
-      <c r="AI37" s="52" t="n"/>
-      <c r="AJ37" s="52" t="n"/>
-      <c r="AK37" s="52" t="n"/>
-      <c r="AL37" s="52" t="n"/>
-      <c r="AM37" s="52" t="n"/>
+      <c r="AB37" s="6" t="inlineStr">
+        <is>
+          <t>栽培適正:</t>
+        </is>
+      </c>
+      <c r="AG37" s="22" t="n"/>
+      <c r="AN37" s="52" t="n"/>
+      <c r="AO37" s="55" t="n"/>
+      <c r="AP37" s="52" t="n"/>
+      <c r="AQ37" s="52" t="n"/>
+      <c r="AR37" s="52" t="n"/>
+      <c r="AS37" s="52" t="n"/>
+      <c r="AT37" s="51" t="n"/>
+      <c r="AU37" s="52" t="n"/>
+      <c r="AV37" s="52" t="n"/>
+      <c r="AW37" s="52" t="n"/>
+      <c r="AX37" s="52" t="n"/>
+      <c r="AY37" s="52" t="n"/>
+      <c r="AZ37" s="52" t="n"/>
     </row>
     <row r="38" ht="20.15" customHeight="1" s="48">
       <c r="B38" s="31" t="inlineStr">
@@ -2212,19 +2577,28 @@
       <c r="Q38" s="32" t="n"/>
       <c r="R38" s="33" t="n"/>
       <c r="T38" s="22" t="n"/>
-      <c r="AA38" s="52" t="n"/>
-      <c r="AB38" s="56" t="n"/>
-      <c r="AC38" s="56" t="n"/>
-      <c r="AD38" s="56" t="n"/>
-      <c r="AE38" s="56" t="n"/>
-      <c r="AF38" s="52" t="n"/>
-      <c r="AG38" s="51" t="n"/>
-      <c r="AH38" s="52" t="n"/>
-      <c r="AI38" s="52" t="n"/>
-      <c r="AJ38" s="52" t="n"/>
-      <c r="AK38" s="52" t="n"/>
-      <c r="AL38" s="52" t="n"/>
-      <c r="AM38" s="52" t="n"/>
+      <c r="AB38" s="31" t="inlineStr">
+        <is>
+          <t>品種:</t>
+        </is>
+      </c>
+      <c r="AC38" s="32" t="n"/>
+      <c r="AD38" s="32" t="n"/>
+      <c r="AE38" s="33" t="n"/>
+      <c r="AG38" s="22" t="n"/>
+      <c r="AN38" s="52" t="n"/>
+      <c r="AO38" s="56" t="n"/>
+      <c r="AP38" s="56" t="n"/>
+      <c r="AQ38" s="56" t="n"/>
+      <c r="AR38" s="56" t="n"/>
+      <c r="AS38" s="52" t="n"/>
+      <c r="AT38" s="51" t="n"/>
+      <c r="AU38" s="52" t="n"/>
+      <c r="AV38" s="52" t="n"/>
+      <c r="AW38" s="52" t="n"/>
+      <c r="AX38" s="52" t="n"/>
+      <c r="AY38" s="52" t="n"/>
+      <c r="AZ38" s="52" t="n"/>
     </row>
     <row r="39" ht="20.15" customHeight="1" s="48">
       <c r="B39" s="34" t="n"/>
@@ -2237,19 +2611,24 @@
       <c r="Q39" s="35" t="n"/>
       <c r="R39" s="36" t="n"/>
       <c r="T39" s="22" t="n"/>
-      <c r="AA39" s="52" t="n"/>
-      <c r="AB39" s="56" t="n"/>
-      <c r="AC39" s="56" t="n"/>
-      <c r="AD39" s="56" t="n"/>
-      <c r="AE39" s="56" t="n"/>
-      <c r="AF39" s="52" t="n"/>
-      <c r="AG39" s="51" t="n"/>
-      <c r="AH39" s="52" t="n"/>
-      <c r="AI39" s="52" t="n"/>
-      <c r="AJ39" s="52" t="n"/>
-      <c r="AK39" s="52" t="n"/>
-      <c r="AL39" s="52" t="n"/>
-      <c r="AM39" s="52" t="n"/>
+      <c r="AB39" s="34" t="n"/>
+      <c r="AC39" s="35" t="n"/>
+      <c r="AD39" s="35" t="n"/>
+      <c r="AE39" s="36" t="n"/>
+      <c r="AG39" s="22" t="n"/>
+      <c r="AN39" s="52" t="n"/>
+      <c r="AO39" s="56" t="n"/>
+      <c r="AP39" s="56" t="n"/>
+      <c r="AQ39" s="56" t="n"/>
+      <c r="AR39" s="56" t="n"/>
+      <c r="AS39" s="52" t="n"/>
+      <c r="AT39" s="51" t="n"/>
+      <c r="AU39" s="52" t="n"/>
+      <c r="AV39" s="52" t="n"/>
+      <c r="AW39" s="52" t="n"/>
+      <c r="AX39" s="52" t="n"/>
+      <c r="AY39" s="52" t="n"/>
+      <c r="AZ39" s="52" t="n"/>
     </row>
     <row r="40" ht="20.15" customHeight="1" s="48">
       <c r="B40" s="34" t="n"/>
@@ -2262,19 +2641,24 @@
       <c r="Q40" s="35" t="n"/>
       <c r="R40" s="36" t="n"/>
       <c r="T40" s="22" t="n"/>
-      <c r="AA40" s="52" t="n"/>
-      <c r="AB40" s="56" t="n"/>
-      <c r="AC40" s="56" t="n"/>
-      <c r="AD40" s="56" t="n"/>
-      <c r="AE40" s="56" t="n"/>
-      <c r="AF40" s="52" t="n"/>
-      <c r="AG40" s="51" t="n"/>
-      <c r="AH40" s="52" t="n"/>
-      <c r="AI40" s="52" t="n"/>
-      <c r="AJ40" s="52" t="n"/>
-      <c r="AK40" s="52" t="n"/>
-      <c r="AL40" s="52" t="n"/>
-      <c r="AM40" s="52" t="n"/>
+      <c r="AB40" s="34" t="n"/>
+      <c r="AC40" s="35" t="n"/>
+      <c r="AD40" s="35" t="n"/>
+      <c r="AE40" s="36" t="n"/>
+      <c r="AG40" s="22" t="n"/>
+      <c r="AN40" s="52" t="n"/>
+      <c r="AO40" s="56" t="n"/>
+      <c r="AP40" s="56" t="n"/>
+      <c r="AQ40" s="56" t="n"/>
+      <c r="AR40" s="56" t="n"/>
+      <c r="AS40" s="52" t="n"/>
+      <c r="AT40" s="51" t="n"/>
+      <c r="AU40" s="52" t="n"/>
+      <c r="AV40" s="52" t="n"/>
+      <c r="AW40" s="52" t="n"/>
+      <c r="AX40" s="52" t="n"/>
+      <c r="AY40" s="52" t="n"/>
+      <c r="AZ40" s="52" t="n"/>
     </row>
     <row r="41" ht="20.15" customHeight="1" s="48">
       <c r="B41" s="37" t="n"/>
@@ -2287,19 +2671,24 @@
       <c r="Q41" s="38" t="n"/>
       <c r="R41" s="39" t="n"/>
       <c r="T41" s="22" t="n"/>
-      <c r="AA41" s="52" t="n"/>
-      <c r="AB41" s="56" t="n"/>
-      <c r="AC41" s="56" t="n"/>
-      <c r="AD41" s="56" t="n"/>
-      <c r="AE41" s="56" t="n"/>
-      <c r="AF41" s="52" t="n"/>
-      <c r="AG41" s="51" t="n"/>
-      <c r="AH41" s="52" t="n"/>
-      <c r="AI41" s="52" t="n"/>
-      <c r="AJ41" s="52" t="n"/>
-      <c r="AK41" s="52" t="n"/>
-      <c r="AL41" s="52" t="n"/>
-      <c r="AM41" s="52" t="n"/>
+      <c r="AB41" s="37" t="n"/>
+      <c r="AC41" s="38" t="n"/>
+      <c r="AD41" s="38" t="n"/>
+      <c r="AE41" s="39" t="n"/>
+      <c r="AG41" s="22" t="n"/>
+      <c r="AN41" s="52" t="n"/>
+      <c r="AO41" s="56" t="n"/>
+      <c r="AP41" s="56" t="n"/>
+      <c r="AQ41" s="56" t="n"/>
+      <c r="AR41" s="56" t="n"/>
+      <c r="AS41" s="52" t="n"/>
+      <c r="AT41" s="51" t="n"/>
+      <c r="AU41" s="52" t="n"/>
+      <c r="AV41" s="52" t="n"/>
+      <c r="AW41" s="52" t="n"/>
+      <c r="AX41" s="52" t="n"/>
+      <c r="AY41" s="52" t="n"/>
+      <c r="AZ41" s="52" t="n"/>
     </row>
     <row r="42" ht="9.4" customHeight="1" s="48">
       <c r="A42" s="19" t="n"/>
@@ -2328,24 +2717,38 @@
       <c r="X42" s="19" t="n"/>
       <c r="Y42" s="19" t="n"/>
       <c r="Z42" s="19" t="n"/>
-      <c r="AA42" s="54" t="n"/>
-      <c r="AB42" s="51" t="n"/>
-      <c r="AC42" s="54" t="n"/>
-      <c r="AD42" s="54" t="n"/>
-      <c r="AE42" s="54" t="n"/>
-      <c r="AF42" s="54" t="n"/>
-      <c r="AG42" s="51" t="n"/>
-      <c r="AH42" s="54" t="n"/>
-      <c r="AI42" s="54" t="n"/>
-      <c r="AJ42" s="54" t="n"/>
-      <c r="AK42" s="54" t="n"/>
-      <c r="AL42" s="54" t="n"/>
-      <c r="AM42" s="54" t="n"/>
+      <c r="AA42" s="19" t="n"/>
+      <c r="AB42" s="30" t="n"/>
+      <c r="AC42" s="19" t="n"/>
+      <c r="AD42" s="19" t="n"/>
+      <c r="AE42" s="19" t="n"/>
+      <c r="AF42" s="19" t="n"/>
+      <c r="AG42" s="30" t="n"/>
+      <c r="AH42" s="19" t="n"/>
+      <c r="AI42" s="19" t="n"/>
+      <c r="AJ42" s="19" t="n"/>
+      <c r="AK42" s="19" t="n"/>
+      <c r="AL42" s="19" t="n"/>
+      <c r="AM42" s="19" t="n"/>
+      <c r="AN42" s="54" t="n"/>
+      <c r="AO42" s="51" t="n"/>
+      <c r="AP42" s="54" t="n"/>
+      <c r="AQ42" s="54" t="n"/>
+      <c r="AR42" s="54" t="n"/>
+      <c r="AS42" s="54" t="n"/>
+      <c r="AT42" s="51" t="n"/>
+      <c r="AU42" s="54" t="n"/>
+      <c r="AV42" s="54" t="n"/>
+      <c r="AW42" s="54" t="n"/>
+      <c r="AX42" s="54" t="n"/>
+      <c r="AY42" s="54" t="n"/>
+      <c r="AZ42" s="54" t="n"/>
     </row>
     <row r="43" ht="9.4" customHeight="1" s="48">
       <c r="G43" s="22" t="n"/>
       <c r="T43" s="22" t="n"/>
       <c r="AG43" s="22" t="n"/>
+      <c r="AT43" s="22" t="n"/>
     </row>
     <row r="44"/>
   </sheetData>

--- a/bb_tem_finish.xlsx
+++ b/bb_tem_finish.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <name val="游ゴシック"/>
       <charset val="128"/>
@@ -104,7 +104,6 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -120,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -323,14 +322,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,25 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,61 +551,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>5</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1809750" cy="2447925"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4191000" cy="1619250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,13 +869,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ44"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
@@ -985,32 +909,6 @@
     <col width="8.08" customWidth="1" style="48" min="24" max="24"/>
     <col width="8.08" customWidth="1" style="48" min="25" max="25"/>
     <col width="8.08" customWidth="1" style="48" min="26" max="26"/>
-    <col width="1" customWidth="1" style="48" min="27" max="27"/>
-    <col width="5.67" customWidth="1" style="48" min="28" max="28"/>
-    <col width="8.42" customWidth="1" style="48" min="29" max="29"/>
-    <col width="5.67" customWidth="1" style="48" min="30" max="30"/>
-    <col width="4" customWidth="1" style="48" min="31" max="31"/>
-    <col width="0.84" customWidth="1" style="48" min="32" max="32"/>
-    <col width="8.08" customWidth="1" style="48" min="33" max="33"/>
-    <col width="8.08" customWidth="1" style="48" min="34" max="34"/>
-    <col width="8.08" customWidth="1" style="48" min="35" max="35"/>
-    <col width="8.08" customWidth="1" style="48" min="36" max="36"/>
-    <col width="8.08" customWidth="1" style="48" min="37" max="37"/>
-    <col width="8.08" customWidth="1" style="48" min="38" max="38"/>
-    <col width="8.08" customWidth="1" style="48" min="39" max="39"/>
-    <col width="1" customWidth="1" style="48" min="40" max="40"/>
-    <col width="5.67" customWidth="1" style="48" min="41" max="41"/>
-    <col width="8.42" customWidth="1" style="48" min="42" max="42"/>
-    <col width="5.67" customWidth="1" style="48" min="43" max="43"/>
-    <col width="4" customWidth="1" style="48" min="44" max="44"/>
-    <col width="0.84" customWidth="1" style="48" min="45" max="45"/>
-    <col width="8.08" customWidth="1" style="48" min="46" max="46"/>
-    <col width="8.08" customWidth="1" style="48" min="47" max="47"/>
-    <col width="8.08" customWidth="1" style="48" min="48" max="48"/>
-    <col width="8.08" customWidth="1" style="48" min="49" max="49"/>
-    <col width="8.08" customWidth="1" style="48" min="50" max="50"/>
-    <col width="8.08" customWidth="1" style="48" min="51" max="51"/>
-    <col width="8.08" customWidth="1" style="48" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" s="48">
@@ -1048,40 +946,6 @@
       <c r="X1" s="2" t="n"/>
       <c r="Y1" s="2" t="n"/>
       <c r="Z1" s="3" t="n"/>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B B 肥 料</t>
-        </is>
-      </c>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-      <c r="AE1" s="2" t="n"/>
-      <c r="AF1" s="2" t="n"/>
-      <c r="AG1" s="2" t="n"/>
-      <c r="AH1" s="2" t="n"/>
-      <c r="AI1" s="2" t="n"/>
-      <c r="AJ1" s="2" t="n"/>
-      <c r="AK1" s="2" t="n"/>
-      <c r="AL1" s="2" t="n"/>
-      <c r="AM1" s="3" t="n"/>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> B B 肥 料</t>
-        </is>
-      </c>
-      <c r="AO1" s="2" t="n"/>
-      <c r="AP1" s="2" t="n"/>
-      <c r="AQ1" s="2" t="n"/>
-      <c r="AR1" s="2" t="n"/>
-      <c r="AS1" s="2" t="n"/>
-      <c r="AT1" s="2" t="n"/>
-      <c r="AU1" s="2" t="n"/>
-      <c r="AV1" s="2" t="n"/>
-      <c r="AW1" s="2" t="n"/>
-      <c r="AX1" s="2" t="n"/>
-      <c r="AY1" s="2" t="n"/>
-      <c r="AZ1" s="3" t="n"/>
     </row>
     <row r="2" ht="9.4" customHeight="1" s="48">
       <c r="A2" s="5" t="n"/>
@@ -1108,30 +972,6 @@
       <c r="W2" s="5" t="n"/>
       <c r="X2" s="5" t="n"/>
       <c r="Y2" s="5" t="n"/>
-      <c r="AA2" s="5" t="n"/>
-      <c r="AB2" s="5" t="n"/>
-      <c r="AC2" s="5" t="n"/>
-      <c r="AD2" s="5" t="n"/>
-      <c r="AE2" s="5" t="n"/>
-      <c r="AF2" s="5" t="n"/>
-      <c r="AG2" s="5" t="n"/>
-      <c r="AH2" s="5" t="n"/>
-      <c r="AI2" s="5" t="n"/>
-      <c r="AJ2" s="5" t="n"/>
-      <c r="AK2" s="5" t="n"/>
-      <c r="AL2" s="5" t="n"/>
-      <c r="AN2" s="5" t="n"/>
-      <c r="AO2" s="5" t="n"/>
-      <c r="AP2" s="5" t="n"/>
-      <c r="AQ2" s="5" t="n"/>
-      <c r="AR2" s="5" t="n"/>
-      <c r="AS2" s="5" t="n"/>
-      <c r="AT2" s="5" t="n"/>
-      <c r="AU2" s="5" t="n"/>
-      <c r="AV2" s="5" t="n"/>
-      <c r="AW2" s="5" t="n"/>
-      <c r="AX2" s="5" t="n"/>
-      <c r="AY2" s="5" t="n"/>
     </row>
     <row r="3" ht="9.4" customHeight="1" s="48">
       <c r="A3" s="6" t="n"/>
@@ -1160,37 +1000,11 @@
       <c r="X3" s="6" t="n"/>
       <c r="Y3" s="6" t="n"/>
       <c r="Z3" s="7" t="n"/>
-      <c r="AA3" s="6" t="n"/>
-      <c r="AB3" s="6" t="n"/>
-      <c r="AC3" s="6" t="n"/>
-      <c r="AD3" s="6" t="n"/>
-      <c r="AE3" s="6" t="n"/>
-      <c r="AF3" s="6" t="n"/>
-      <c r="AG3" s="6" t="n"/>
-      <c r="AH3" s="6" t="n"/>
-      <c r="AI3" s="6" t="n"/>
-      <c r="AJ3" s="6" t="n"/>
-      <c r="AK3" s="6" t="n"/>
-      <c r="AL3" s="6" t="n"/>
-      <c r="AM3" s="7" t="n"/>
-      <c r="AN3" s="6" t="n"/>
-      <c r="AO3" s="6" t="n"/>
-      <c r="AP3" s="6" t="n"/>
-      <c r="AQ3" s="6" t="n"/>
-      <c r="AR3" s="6" t="n"/>
-      <c r="AS3" s="6" t="n"/>
-      <c r="AT3" s="6" t="n"/>
-      <c r="AU3" s="6" t="n"/>
-      <c r="AV3" s="6" t="n"/>
-      <c r="AW3" s="6" t="n"/>
-      <c r="AX3" s="6" t="n"/>
-      <c r="AY3" s="6" t="n"/>
-      <c r="AZ3" s="7" t="n"/>
     </row>
     <row r="4" ht="20.15" customHeight="1" s="48">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>NSコート早生N24</t>
+          <t>NSコート早生N24+4</t>
         </is>
       </c>
       <c r="B4" s="40" t="n"/>
@@ -1226,7 +1040,7 @@
       </c>
       <c r="N4" s="40" t="inlineStr">
         <is>
-          <t>NSコートコシN20</t>
+          <t>NSコートコシN24</t>
         </is>
       </c>
       <c r="O4" s="40" t="n"/>
@@ -1260,78 +1074,6 @@
           <t>被覆尿素</t>
         </is>
       </c>
-      <c r="AA4" s="40" t="inlineStr">
-        <is>
-          <t>NSコート晩生N27</t>
-        </is>
-      </c>
-      <c r="AB4" s="40" t="n"/>
-      <c r="AC4" s="40" t="n"/>
-      <c r="AD4" s="40" t="n"/>
-      <c r="AE4" s="40" t="n"/>
-      <c r="AF4" s="8" t="n"/>
-      <c r="AG4" s="42" t="n"/>
-      <c r="AH4" s="9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AI4" s="9" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ4" s="9" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AK4" s="9" t="inlineStr">
-        <is>
-          <t>速効性N</t>
-        </is>
-      </c>
-      <c r="AL4" s="9" t="inlineStr">
-        <is>
-          <t>被覆尿素</t>
-        </is>
-      </c>
-      <c r="AN4" s="40" t="inlineStr">
-        <is>
-          <t>直一発K20号</t>
-        </is>
-      </c>
-      <c r="AO4" s="40" t="n"/>
-      <c r="AP4" s="40" t="n"/>
-      <c r="AQ4" s="40" t="n"/>
-      <c r="AR4" s="40" t="n"/>
-      <c r="AS4" s="8" t="n"/>
-      <c r="AT4" s="42" t="n"/>
-      <c r="AU4" s="9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV4" s="9" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AW4" s="9" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AX4" s="9" t="inlineStr">
-        <is>
-          <t>速効性N</t>
-        </is>
-      </c>
-      <c r="AY4" s="9" t="inlineStr">
-        <is>
-          <t>被覆尿素</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="33.5" customHeight="1" s="48">
       <c r="G5" s="43" t="inlineStr">
@@ -1341,94 +1083,46 @@
       </c>
       <c r="H5" s="44" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I5" s="44" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J5" s="44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="49" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L5" s="49" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T5" s="43" t="inlineStr">
+        <is>
+          <t>成分</t>
+        </is>
+      </c>
+      <c r="U5" s="44" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="I5" s="44" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" s="44" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="49" t="n">
-        <v>12</v>
-      </c>
-      <c r="L5" s="49" t="n">
-        <v>12</v>
-      </c>
-      <c r="T5" s="43" t="inlineStr">
-        <is>
-          <t>成分</t>
-        </is>
-      </c>
-      <c r="U5" s="44" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="V5" s="44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="W5" s="44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X5" s="49" t="n">
         <v>8.1</v>
       </c>
       <c r="Y5" s="49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="AG5" s="43" t="inlineStr">
-        <is>
-          <t>成分</t>
-        </is>
-      </c>
-      <c r="AH5" s="44" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AI5" s="44" t="inlineStr">
-        <is>
-          <t>７</t>
-        </is>
-      </c>
-      <c r="AJ5" s="44" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK5" s="49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AL5" s="49" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="AT5" s="43" t="inlineStr">
-        <is>
-          <t>成分</t>
-        </is>
-      </c>
-      <c r="AU5" s="44" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AV5" s="44" t="inlineStr">
-        <is>
-          <t>１２</t>
-        </is>
-      </c>
-      <c r="AW5" s="44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX5" s="49" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AY5" s="49" t="n">
-        <v>12.8</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="6" ht="20.15" customHeight="1" s="48">
@@ -1454,28 +1148,6 @@
         </is>
       </c>
       <c r="Y6" s="12" t="n"/>
-      <c r="AG6" s="10" t="inlineStr">
-        <is>
-          <t>その他</t>
-        </is>
-      </c>
-      <c r="AH6" s="46" t="inlineStr">
-        <is>
-          <t>容量:15㎏</t>
-        </is>
-      </c>
-      <c r="AL6" s="12" t="n"/>
-      <c r="AT6" s="10" t="inlineStr">
-        <is>
-          <t>その他</t>
-        </is>
-      </c>
-      <c r="AU6" s="46" t="inlineStr">
-        <is>
-          <t>容量:20㎏</t>
-        </is>
-      </c>
-      <c r="AY6" s="12" t="n"/>
     </row>
     <row r="7">
       <c r="G7" s="14" t="n"/>
@@ -1490,18 +1162,6 @@
       <c r="W7" s="13" t="n"/>
       <c r="X7" s="13" t="n"/>
       <c r="Y7" s="13" t="n"/>
-      <c r="AG7" s="14" t="n"/>
-      <c r="AH7" s="11" t="n"/>
-      <c r="AI7" s="13" t="n"/>
-      <c r="AJ7" s="13" t="n"/>
-      <c r="AK7" s="13" t="n"/>
-      <c r="AL7" s="13" t="n"/>
-      <c r="AT7" s="14" t="n"/>
-      <c r="AU7" s="11" t="n"/>
-      <c r="AV7" s="13" t="n"/>
-      <c r="AW7" s="13" t="n"/>
-      <c r="AX7" s="13" t="n"/>
-      <c r="AY7" s="13" t="n"/>
     </row>
     <row r="8">
       <c r="G8" s="15" t="inlineStr">
@@ -1526,98 +1186,48 @@
       <c r="X8" s="15" t="n"/>
       <c r="Y8" s="15" t="n"/>
       <c r="Z8" s="3" t="n"/>
-      <c r="AG8" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　特 徴</t>
-        </is>
-      </c>
-      <c r="AH8" s="15" t="n"/>
-      <c r="AI8" s="15" t="n"/>
-      <c r="AJ8" s="15" t="n"/>
-      <c r="AK8" s="15" t="n"/>
-      <c r="AL8" s="15" t="n"/>
-      <c r="AM8" s="3" t="n"/>
-      <c r="AT8" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　特 徴</t>
-        </is>
-      </c>
-      <c r="AU8" s="15" t="n"/>
-      <c r="AV8" s="15" t="n"/>
-      <c r="AW8" s="15" t="n"/>
-      <c r="AX8" s="15" t="n"/>
-      <c r="AY8" s="15" t="n"/>
-      <c r="AZ8" s="3" t="n"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" s="48">
       <c r="G9" t="inlineStr">
         <is>
-          <t>●初期肥効の充実は、茎数の確保を促し、収量の安定化・増加につながる</t>
+          <t>●通常のNSコートよりさらに高窒素</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>●コシヒカリの生育に合わせて設計しております</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>●通常のNSコートに比べ後半の肥効を重視した肥料です</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>●直播での栽培をされる方におすすめ</t>
         </is>
       </c>
     </row>
     <row r="10" ht="20.15" customHeight="1" s="48">
       <c r="G10" t="inlineStr">
         <is>
-          <t>●3種の被覆が分げつ期や幼穂形成期に発現し、茎や穂の充実に効果的です</t>
+          <t>●速効性と３種の被覆により、安定的な肥効が期待できます</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>●窒素成分とリン酸が多く健全な生育を促進</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>●高窒素成分で省力的施肥が可能です</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>●比較的冷涼な地域(寒地)で使用すると効果的です</t>
+          <t>●窒素成分が高いことで元気な稲づくりに貢献します</t>
         </is>
       </c>
     </row>
     <row r="11" ht="20.15" customHeight="1" s="48">
-      <c r="G11" t="n">
-        <v/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>●追肥を施すことで、穂の充実を高め、増収が見込めます</t>
+        </is>
       </c>
       <c r="T11" t="n">
         <v/>
       </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AT11" t="n">
-        <v/>
-      </c>
     </row>
     <row r="12" ht="20.15" customHeight="1" s="48">
-      <c r="G12" t="n">
-        <v/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>●側条施肥機に使用できるよう、粒形を均一に揃えています</t>
+        </is>
       </c>
       <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AT12" t="n">
         <v/>
       </c>
     </row>
@@ -1626,12 +1236,6 @@
         <v/>
       </c>
       <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AT13" t="n">
         <v/>
       </c>
     </row>
@@ -1649,18 +1253,6 @@
       <c r="W15" s="16" t="n"/>
       <c r="X15" s="16" t="n"/>
       <c r="Y15" s="16" t="n"/>
-      <c r="AG15" s="16" t="n"/>
-      <c r="AH15" s="16" t="n"/>
-      <c r="AI15" s="16" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-      <c r="AK15" s="16" t="n"/>
-      <c r="AL15" s="16" t="n"/>
-      <c r="AT15" s="16" t="n"/>
-      <c r="AU15" s="16" t="n"/>
-      <c r="AV15" s="16" t="n"/>
-      <c r="AW15" s="16" t="n"/>
-      <c r="AX15" s="16" t="n"/>
-      <c r="AY15" s="16" t="n"/>
     </row>
     <row r="16" ht="5.15" customHeight="1" s="48">
       <c r="G16" s="17" t="n"/>
@@ -1675,18 +1267,6 @@
       <c r="W16" s="17" t="n"/>
       <c r="X16" s="17" t="n"/>
       <c r="Y16" s="17" t="n"/>
-      <c r="AG16" s="17" t="n"/>
-      <c r="AH16" s="17" t="n"/>
-      <c r="AI16" s="17" t="n"/>
-      <c r="AJ16" s="17" t="n"/>
-      <c r="AK16" s="17" t="n"/>
-      <c r="AL16" s="17" t="n"/>
-      <c r="AT16" s="17" t="n"/>
-      <c r="AU16" s="17" t="n"/>
-      <c r="AV16" s="17" t="n"/>
-      <c r="AW16" s="17" t="n"/>
-      <c r="AX16" s="17" t="n"/>
-      <c r="AY16" s="17" t="n"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" s="48">
       <c r="B17" s="6" t="inlineStr">
@@ -1711,28 +1291,6 @@
       <c r="W17" s="18" t="n"/>
       <c r="X17" s="18" t="n"/>
       <c r="Y17" s="18" t="n"/>
-      <c r="AB17" s="6" t="inlineStr">
-        <is>
-          <t>栽培適正:</t>
-        </is>
-      </c>
-      <c r="AG17" s="18" t="n"/>
-      <c r="AH17" s="18" t="n"/>
-      <c r="AI17" s="18" t="n"/>
-      <c r="AJ17" s="18" t="n"/>
-      <c r="AK17" s="18" t="n"/>
-      <c r="AL17" s="18" t="n"/>
-      <c r="AO17" s="6" t="inlineStr">
-        <is>
-          <t>栽培適正:</t>
-        </is>
-      </c>
-      <c r="AT17" s="18" t="n"/>
-      <c r="AU17" s="18" t="n"/>
-      <c r="AV17" s="18" t="n"/>
-      <c r="AW17" s="18" t="n"/>
-      <c r="AX17" s="18" t="n"/>
-      <c r="AY17" s="18" t="n"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" s="48">
       <c r="B18" s="41" t="inlineStr">
@@ -1763,34 +1321,6 @@
       <c r="W18" s="18" t="n"/>
       <c r="X18" s="18" t="n"/>
       <c r="Y18" s="18" t="n"/>
-      <c r="AB18" s="41" t="inlineStr">
-        <is>
-          <t>品種:</t>
-        </is>
-      </c>
-      <c r="AC18" s="32" t="n"/>
-      <c r="AD18" s="32" t="n"/>
-      <c r="AE18" s="33" t="n"/>
-      <c r="AG18" s="18" t="n"/>
-      <c r="AH18" s="18" t="n"/>
-      <c r="AI18" s="18" t="n"/>
-      <c r="AJ18" s="18" t="n"/>
-      <c r="AK18" s="18" t="n"/>
-      <c r="AL18" s="18" t="n"/>
-      <c r="AO18" s="41" t="inlineStr">
-        <is>
-          <t>品種:</t>
-        </is>
-      </c>
-      <c r="AP18" s="32" t="n"/>
-      <c r="AQ18" s="32" t="n"/>
-      <c r="AR18" s="33" t="n"/>
-      <c r="AT18" s="18" t="n"/>
-      <c r="AU18" s="18" t="n"/>
-      <c r="AV18" s="18" t="n"/>
-      <c r="AW18" s="18" t="n"/>
-      <c r="AX18" s="18" t="n"/>
-      <c r="AY18" s="18" t="n"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" s="48">
       <c r="B19" s="34" t="n"/>
@@ -1813,26 +1343,6 @@
       <c r="W19" s="18" t="n"/>
       <c r="X19" s="18" t="n"/>
       <c r="Y19" s="18" t="n"/>
-      <c r="AB19" s="34" t="n"/>
-      <c r="AC19" s="35" t="n"/>
-      <c r="AD19" s="35" t="n"/>
-      <c r="AE19" s="36" t="n"/>
-      <c r="AG19" s="18" t="n"/>
-      <c r="AH19" s="18" t="n"/>
-      <c r="AI19" s="18" t="n"/>
-      <c r="AJ19" s="18" t="n"/>
-      <c r="AK19" s="18" t="n"/>
-      <c r="AL19" s="18" t="n"/>
-      <c r="AO19" s="34" t="n"/>
-      <c r="AP19" s="35" t="n"/>
-      <c r="AQ19" s="35" t="n"/>
-      <c r="AR19" s="36" t="n"/>
-      <c r="AT19" s="18" t="n"/>
-      <c r="AU19" s="18" t="n"/>
-      <c r="AV19" s="18" t="n"/>
-      <c r="AW19" s="18" t="n"/>
-      <c r="AX19" s="18" t="n"/>
-      <c r="AY19" s="18" t="n"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" s="48">
       <c r="B20" s="34" t="n"/>
@@ -1855,26 +1365,6 @@
       <c r="W20" s="18" t="n"/>
       <c r="X20" s="18" t="n"/>
       <c r="Y20" s="18" t="n"/>
-      <c r="AB20" s="34" t="n"/>
-      <c r="AC20" s="35" t="n"/>
-      <c r="AD20" s="35" t="n"/>
-      <c r="AE20" s="36" t="n"/>
-      <c r="AG20" s="18" t="n"/>
-      <c r="AH20" s="18" t="n"/>
-      <c r="AI20" s="18" t="n"/>
-      <c r="AJ20" s="18" t="n"/>
-      <c r="AK20" s="18" t="n"/>
-      <c r="AL20" s="18" t="n"/>
-      <c r="AO20" s="34" t="n"/>
-      <c r="AP20" s="35" t="n"/>
-      <c r="AQ20" s="35" t="n"/>
-      <c r="AR20" s="36" t="n"/>
-      <c r="AT20" s="18" t="n"/>
-      <c r="AU20" s="18" t="n"/>
-      <c r="AV20" s="18" t="n"/>
-      <c r="AW20" s="18" t="n"/>
-      <c r="AX20" s="18" t="n"/>
-      <c r="AY20" s="18" t="n"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" s="48">
       <c r="B21" s="37" t="n"/>
@@ -1897,26 +1387,6 @@
       <c r="W21" s="18" t="n"/>
       <c r="X21" s="18" t="n"/>
       <c r="Y21" s="18" t="n"/>
-      <c r="AB21" s="37" t="n"/>
-      <c r="AC21" s="38" t="n"/>
-      <c r="AD21" s="38" t="n"/>
-      <c r="AE21" s="39" t="n"/>
-      <c r="AG21" s="18" t="n"/>
-      <c r="AH21" s="18" t="n"/>
-      <c r="AI21" s="18" t="n"/>
-      <c r="AJ21" s="18" t="n"/>
-      <c r="AK21" s="18" t="n"/>
-      <c r="AL21" s="18" t="n"/>
-      <c r="AO21" s="37" t="n"/>
-      <c r="AP21" s="38" t="n"/>
-      <c r="AQ21" s="38" t="n"/>
-      <c r="AR21" s="39" t="n"/>
-      <c r="AT21" s="18" t="n"/>
-      <c r="AU21" s="18" t="n"/>
-      <c r="AV21" s="18" t="n"/>
-      <c r="AW21" s="18" t="n"/>
-      <c r="AX21" s="18" t="n"/>
-      <c r="AY21" s="18" t="n"/>
     </row>
     <row r="22" ht="9.4" customHeight="1" s="48">
       <c r="A22" s="19" t="n"/>
@@ -1943,45 +1413,17 @@
       <c r="W22" s="21" t="n"/>
       <c r="X22" s="21" t="n"/>
       <c r="Y22" s="21" t="n"/>
-      <c r="AA22" s="19" t="n"/>
-      <c r="AB22" s="19" t="n"/>
-      <c r="AC22" s="19" t="n"/>
-      <c r="AD22" s="19" t="n"/>
-      <c r="AE22" s="19" t="n"/>
-      <c r="AF22" s="19" t="n"/>
-      <c r="AG22" s="20" t="n"/>
-      <c r="AH22" s="21" t="n"/>
-      <c r="AI22" s="21" t="n"/>
-      <c r="AJ22" s="21" t="n"/>
-      <c r="AK22" s="21" t="n"/>
-      <c r="AL22" s="21" t="n"/>
-      <c r="AN22" s="19" t="n"/>
-      <c r="AO22" s="19" t="n"/>
-      <c r="AP22" s="19" t="n"/>
-      <c r="AQ22" s="19" t="n"/>
-      <c r="AR22" s="19" t="n"/>
-      <c r="AS22" s="19" t="n"/>
-      <c r="AT22" s="20" t="n"/>
-      <c r="AU22" s="21" t="n"/>
-      <c r="AV22" s="21" t="n"/>
-      <c r="AW22" s="21" t="n"/>
-      <c r="AX22" s="21" t="n"/>
-      <c r="AY22" s="21" t="n"/>
     </row>
     <row r="23" ht="9.4" customHeight="1" s="48">
       <c r="G23" s="22" t="n"/>
       <c r="M23" s="7" t="n"/>
       <c r="T23" s="22" t="n"/>
       <c r="Z23" s="7" t="n"/>
-      <c r="AG23" s="22" t="n"/>
-      <c r="AM23" s="7" t="n"/>
-      <c r="AT23" s="22" t="n"/>
-      <c r="AZ23" s="7" t="n"/>
     </row>
     <row r="24" ht="20.15" customHeight="1" s="48">
       <c r="A24" s="40" t="inlineStr">
         <is>
-          <t>NSコート早生N24+4</t>
+          <t>NSコートコシN20</t>
         </is>
       </c>
       <c r="B24" s="40" t="n"/>
@@ -2017,7 +1459,7 @@
       </c>
       <c r="N24" s="40" t="inlineStr">
         <is>
-          <t>NSコートコシN24</t>
+          <t>NSコート晩生N27</t>
         </is>
       </c>
       <c r="O24" s="40" t="n"/>
@@ -2051,55 +1493,6 @@
           <t>被覆尿素</t>
         </is>
       </c>
-      <c r="AA24" s="40" t="inlineStr">
-        <is>
-          <t>NSコート蛍N13</t>
-        </is>
-      </c>
-      <c r="AB24" s="40" t="n"/>
-      <c r="AC24" s="40" t="n"/>
-      <c r="AD24" s="40" t="n"/>
-      <c r="AE24" s="40" t="n"/>
-      <c r="AF24" s="8" t="n"/>
-      <c r="AG24" s="42" t="n"/>
-      <c r="AH24" s="9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AI24" s="9" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AJ24" s="9" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AK24" s="9" t="inlineStr">
-        <is>
-          <t>速効性N</t>
-        </is>
-      </c>
-      <c r="AL24" s="9" t="inlineStr">
-        <is>
-          <t>被覆尿素</t>
-        </is>
-      </c>
-      <c r="AN24" s="50" t="n"/>
-      <c r="AO24" s="50" t="n"/>
-      <c r="AP24" s="50" t="n"/>
-      <c r="AQ24" s="50" t="n"/>
-      <c r="AR24" s="50" t="n"/>
-      <c r="AS24" s="51" t="n"/>
-      <c r="AT24" s="50" t="n"/>
-      <c r="AU24" s="51" t="n"/>
-      <c r="AV24" s="51" t="n"/>
-      <c r="AW24" s="51" t="n"/>
-      <c r="AX24" s="51" t="n"/>
-      <c r="AY24" s="51" t="n"/>
-      <c r="AZ24" s="52" t="n"/>
     </row>
     <row r="25" ht="34.25" customHeight="1" s="48">
       <c r="G25" s="43" t="inlineStr">
@@ -2109,22 +1502,22 @@
       </c>
       <c r="H25" s="47" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I25" s="47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J25" s="47" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>12.2</v>
+        <v>8.1</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>15.8</v>
+        <v>11.9</v>
       </c>
       <c r="T25" s="43" t="inlineStr">
         <is>
@@ -2133,60 +1526,23 @@
       </c>
       <c r="U25" s="47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="V25" s="47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>７</t>
         </is>
       </c>
       <c r="W25" s="47" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X25" s="47" t="n">
-        <v>8.1</v>
+        <v>5.5</v>
       </c>
       <c r="Y25" s="47" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="AG25" s="43" t="inlineStr">
-        <is>
-          <t>成分</t>
-        </is>
-      </c>
-      <c r="AH25" s="47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13 </t>
-        </is>
-      </c>
-      <c r="AI25" s="47" t="inlineStr">
-        <is>
-          <t>９</t>
-        </is>
-      </c>
-      <c r="AJ25" s="47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK25" s="47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL25" s="47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AN25" s="52" t="n"/>
-      <c r="AO25" s="52" t="n"/>
-      <c r="AP25" s="52" t="n"/>
-      <c r="AQ25" s="52" t="n"/>
-      <c r="AR25" s="52" t="n"/>
-      <c r="AS25" s="52" t="n"/>
-      <c r="AT25" s="53" t="n"/>
-      <c r="AU25" s="51" t="n"/>
-      <c r="AV25" s="51" t="n"/>
-      <c r="AW25" s="51" t="n"/>
-      <c r="AX25" s="51" t="n"/>
-      <c r="AY25" s="51" t="n"/>
-      <c r="AZ25" s="52" t="n"/>
+        <v>21.5</v>
+      </c>
     </row>
     <row r="26" ht="20.15" customHeight="1" s="48">
       <c r="G26" s="23" t="inlineStr">
@@ -2217,49 +1573,8 @@
       <c r="W26" s="25" t="n"/>
       <c r="X26" s="25" t="n"/>
       <c r="Y26" s="26" t="n"/>
-      <c r="AG26" s="23" t="inlineStr">
-        <is>
-          <t>その他</t>
-        </is>
-      </c>
-      <c r="AH26" s="24" t="inlineStr">
-        <is>
-          <t>容量:15㎏</t>
-        </is>
-      </c>
-      <c r="AI26" s="25" t="n"/>
-      <c r="AJ26" s="25" t="n"/>
-      <c r="AK26" s="25" t="n"/>
-      <c r="AL26" s="26" t="n"/>
-      <c r="AN26" s="52" t="n"/>
-      <c r="AO26" s="52" t="n"/>
-      <c r="AP26" s="52" t="n"/>
-      <c r="AQ26" s="52" t="n"/>
-      <c r="AR26" s="52" t="n"/>
-      <c r="AS26" s="52" t="n"/>
-      <c r="AT26" s="51" t="n"/>
-      <c r="AU26" s="54" t="n"/>
-      <c r="AV26" s="54" t="n"/>
-      <c r="AW26" s="54" t="n"/>
-      <c r="AX26" s="54" t="n"/>
-      <c r="AY26" s="54" t="n"/>
-      <c r="AZ26" s="52" t="n"/>
-    </row>
-    <row r="27">
-      <c r="AN27" s="52" t="n"/>
-      <c r="AO27" s="52" t="n"/>
-      <c r="AP27" s="52" t="n"/>
-      <c r="AQ27" s="52" t="n"/>
-      <c r="AR27" s="52" t="n"/>
-      <c r="AS27" s="52" t="n"/>
-      <c r="AT27" s="52" t="n"/>
-      <c r="AU27" s="52" t="n"/>
-      <c r="AV27" s="52" t="n"/>
-      <c r="AW27" s="52" t="n"/>
-      <c r="AX27" s="52" t="n"/>
-      <c r="AY27" s="52" t="n"/>
-      <c r="AZ27" s="52" t="n"/>
-    </row>
+    </row>
+    <row r="27"/>
     <row r="28">
       <c r="G28" s="27" t="inlineStr">
         <is>
@@ -2283,142 +1598,46 @@
       <c r="X28" s="27" t="n"/>
       <c r="Y28" s="27" t="n"/>
       <c r="Z28" s="3" t="n"/>
-      <c r="AG28" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　特 徴</t>
-        </is>
-      </c>
-      <c r="AH28" s="27" t="n"/>
-      <c r="AI28" s="27" t="n"/>
-      <c r="AJ28" s="27" t="n"/>
-      <c r="AK28" s="27" t="n"/>
-      <c r="AL28" s="27" t="n"/>
-      <c r="AM28" s="3" t="n"/>
-      <c r="AN28" s="52" t="n"/>
-      <c r="AO28" s="52" t="n"/>
-      <c r="AP28" s="52" t="n"/>
-      <c r="AQ28" s="52" t="n"/>
-      <c r="AR28" s="52" t="n"/>
-      <c r="AS28" s="52" t="n"/>
-      <c r="AT28" s="54" t="n"/>
-      <c r="AU28" s="54" t="n"/>
-      <c r="AV28" s="54" t="n"/>
-      <c r="AW28" s="54" t="n"/>
-      <c r="AX28" s="54" t="n"/>
-      <c r="AY28" s="54" t="n"/>
-      <c r="AZ28" s="54" t="n"/>
     </row>
     <row r="29" ht="20.15" customHeight="1" s="48">
       <c r="G29" t="inlineStr">
         <is>
-          <t>●通常のNSコートよりさらに高窒素</t>
+          <t>●コシヒカリの生育に合わせて設計しております</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>●コシヒカリの生育に合わせて設計しております</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>●良食味米に適した肥料</t>
-        </is>
-      </c>
-      <c r="AN29" s="52" t="n"/>
-      <c r="AO29" s="52" t="n"/>
-      <c r="AP29" s="52" t="n"/>
-      <c r="AQ29" s="52" t="n"/>
-      <c r="AR29" s="52" t="n"/>
-      <c r="AS29" s="52" t="n"/>
-      <c r="AT29" s="52" t="n"/>
-      <c r="AU29" s="52" t="n"/>
-      <c r="AV29" s="52" t="n"/>
-      <c r="AW29" s="52" t="n"/>
-      <c r="AX29" s="52" t="n"/>
-      <c r="AY29" s="52" t="n"/>
-      <c r="AZ29" s="52" t="n"/>
+          <t>●通常のNSコートに比べ後半の肥効を重視した肥料です</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="20.15" customHeight="1" s="48">
       <c r="G30" t="inlineStr">
         <is>
-          <t>●速効性と３種の被覆により、安定的な肥効が期待できます</t>
+          <t>●窒素成分とリン酸が多く健全な生育を促進</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>●窒素成分が高いことで元気な稲づくりに貢献します</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>●初期生育が充実するよう、有機体・速効性窒素をバランスよく配合</t>
-        </is>
-      </c>
-      <c r="AN30" s="52" t="n"/>
-      <c r="AO30" s="52" t="n"/>
-      <c r="AP30" s="52" t="n"/>
-      <c r="AQ30" s="52" t="n"/>
-      <c r="AR30" s="52" t="n"/>
-      <c r="AS30" s="52" t="n"/>
-      <c r="AT30" s="52" t="n"/>
-      <c r="AU30" s="52" t="n"/>
-      <c r="AV30" s="52" t="n"/>
-      <c r="AW30" s="52" t="n"/>
-      <c r="AX30" s="52" t="n"/>
-      <c r="AY30" s="52" t="n"/>
-      <c r="AZ30" s="52" t="n"/>
+          <t>●高窒素成分で省力的施肥が可能です</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="20.15" customHeight="1" s="48">
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>●追肥を施すことで、穂の充実を高め、増収が見込めます</t>
-        </is>
+      <c r="G31" t="n">
+        <v/>
       </c>
       <c r="T31" t="n">
         <v/>
       </c>
-      <c r="AG31" t="n">
+    </row>
+    <row r="32" ht="20.15" customHeight="1" s="48">
+      <c r="G32" t="n">
         <v/>
-      </c>
-      <c r="AN31" s="52" t="n"/>
-      <c r="AO31" s="52" t="n"/>
-      <c r="AP31" s="52" t="n"/>
-      <c r="AQ31" s="52" t="n"/>
-      <c r="AR31" s="52" t="n"/>
-      <c r="AS31" s="52" t="n"/>
-      <c r="AT31" s="52" t="n"/>
-      <c r="AU31" s="52" t="n"/>
-      <c r="AV31" s="52" t="n"/>
-      <c r="AW31" s="52" t="n"/>
-      <c r="AX31" s="52" t="n"/>
-      <c r="AY31" s="52" t="n"/>
-      <c r="AZ31" s="52" t="n"/>
-    </row>
-    <row r="32" ht="20.15" customHeight="1" s="48">
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>●側条施肥機に使用できるよう、粒形を均一に揃えています</t>
-        </is>
       </c>
       <c r="T32" t="n">
         <v/>
       </c>
-      <c r="AG32" t="n">
-        <v/>
-      </c>
-      <c r="AN32" s="52" t="n"/>
-      <c r="AO32" s="52" t="n"/>
-      <c r="AP32" s="52" t="n"/>
-      <c r="AQ32" s="52" t="n"/>
-      <c r="AR32" s="52" t="n"/>
-      <c r="AS32" s="52" t="n"/>
-      <c r="AT32" s="52" t="n"/>
-      <c r="AU32" s="52" t="n"/>
-      <c r="AV32" s="52" t="n"/>
-      <c r="AW32" s="52" t="n"/>
-      <c r="AX32" s="52" t="n"/>
-      <c r="AY32" s="52" t="n"/>
-      <c r="AZ32" s="52" t="n"/>
     </row>
     <row r="33" ht="20.15" customHeight="1" s="48">
       <c r="G33" t="n">
@@ -2427,38 +1646,8 @@
       <c r="T33" t="n">
         <v/>
       </c>
-      <c r="AG33" t="n">
-        <v/>
-      </c>
-      <c r="AN33" s="52" t="n"/>
-      <c r="AO33" s="52" t="n"/>
-      <c r="AP33" s="52" t="n"/>
-      <c r="AQ33" s="52" t="n"/>
-      <c r="AR33" s="52" t="n"/>
-      <c r="AS33" s="52" t="n"/>
-      <c r="AT33" s="52" t="n"/>
-      <c r="AU33" s="52" t="n"/>
-      <c r="AV33" s="52" t="n"/>
-      <c r="AW33" s="52" t="n"/>
-      <c r="AX33" s="52" t="n"/>
-      <c r="AY33" s="52" t="n"/>
-      <c r="AZ33" s="52" t="n"/>
-    </row>
-    <row r="34">
-      <c r="AN34" s="52" t="n"/>
-      <c r="AO34" s="52" t="n"/>
-      <c r="AP34" s="52" t="n"/>
-      <c r="AQ34" s="52" t="n"/>
-      <c r="AR34" s="52" t="n"/>
-      <c r="AS34" s="52" t="n"/>
-      <c r="AT34" s="52" t="n"/>
-      <c r="AU34" s="52" t="n"/>
-      <c r="AV34" s="52" t="n"/>
-      <c r="AW34" s="52" t="n"/>
-      <c r="AX34" s="52" t="n"/>
-      <c r="AY34" s="52" t="n"/>
-      <c r="AZ34" s="52" t="n"/>
-    </row>
+    </row>
+    <row r="34"/>
     <row r="35">
       <c r="G35" s="28" t="n"/>
       <c r="H35" s="28" t="n"/>
@@ -2472,25 +1661,6 @@
       <c r="W35" s="28" t="n"/>
       <c r="X35" s="28" t="n"/>
       <c r="Y35" s="28" t="n"/>
-      <c r="AG35" s="28" t="n"/>
-      <c r="AH35" s="28" t="n"/>
-      <c r="AI35" s="28" t="n"/>
-      <c r="AJ35" s="28" t="n"/>
-      <c r="AK35" s="28" t="n"/>
-      <c r="AL35" s="28" t="n"/>
-      <c r="AN35" s="52" t="n"/>
-      <c r="AO35" s="52" t="n"/>
-      <c r="AP35" s="52" t="n"/>
-      <c r="AQ35" s="52" t="n"/>
-      <c r="AR35" s="52" t="n"/>
-      <c r="AS35" s="52" t="n"/>
-      <c r="AT35" s="54" t="n"/>
-      <c r="AU35" s="54" t="n"/>
-      <c r="AV35" s="54" t="n"/>
-      <c r="AW35" s="54" t="n"/>
-      <c r="AX35" s="54" t="n"/>
-      <c r="AY35" s="54" t="n"/>
-      <c r="AZ35" s="52" t="n"/>
     </row>
     <row r="36" ht="5.15" customHeight="1" s="48">
       <c r="G36" s="29" t="n"/>
@@ -2505,25 +1675,6 @@
       <c r="W36" s="29" t="n"/>
       <c r="X36" s="29" t="n"/>
       <c r="Y36" s="29" t="n"/>
-      <c r="AG36" s="29" t="n"/>
-      <c r="AH36" s="29" t="n"/>
-      <c r="AI36" s="29" t="n"/>
-      <c r="AJ36" s="29" t="n"/>
-      <c r="AK36" s="29" t="n"/>
-      <c r="AL36" s="29" t="n"/>
-      <c r="AN36" s="52" t="n"/>
-      <c r="AO36" s="52" t="n"/>
-      <c r="AP36" s="52" t="n"/>
-      <c r="AQ36" s="52" t="n"/>
-      <c r="AR36" s="52" t="n"/>
-      <c r="AS36" s="52" t="n"/>
-      <c r="AT36" s="55" t="n"/>
-      <c r="AU36" s="55" t="n"/>
-      <c r="AV36" s="55" t="n"/>
-      <c r="AW36" s="55" t="n"/>
-      <c r="AX36" s="55" t="n"/>
-      <c r="AY36" s="55" t="n"/>
-      <c r="AZ36" s="52" t="n"/>
     </row>
     <row r="37" ht="20.15" customHeight="1" s="48">
       <c r="B37" s="6" t="inlineStr">
@@ -2538,25 +1689,6 @@
         </is>
       </c>
       <c r="T37" s="22" t="n"/>
-      <c r="AB37" s="6" t="inlineStr">
-        <is>
-          <t>栽培適正:</t>
-        </is>
-      </c>
-      <c r="AG37" s="22" t="n"/>
-      <c r="AN37" s="52" t="n"/>
-      <c r="AO37" s="55" t="n"/>
-      <c r="AP37" s="52" t="n"/>
-      <c r="AQ37" s="52" t="n"/>
-      <c r="AR37" s="52" t="n"/>
-      <c r="AS37" s="52" t="n"/>
-      <c r="AT37" s="51" t="n"/>
-      <c r="AU37" s="52" t="n"/>
-      <c r="AV37" s="52" t="n"/>
-      <c r="AW37" s="52" t="n"/>
-      <c r="AX37" s="52" t="n"/>
-      <c r="AY37" s="52" t="n"/>
-      <c r="AZ37" s="52" t="n"/>
     </row>
     <row r="38" ht="20.15" customHeight="1" s="48">
       <c r="B38" s="31" t="inlineStr">
@@ -2577,28 +1709,6 @@
       <c r="Q38" s="32" t="n"/>
       <c r="R38" s="33" t="n"/>
       <c r="T38" s="22" t="n"/>
-      <c r="AB38" s="31" t="inlineStr">
-        <is>
-          <t>品種:</t>
-        </is>
-      </c>
-      <c r="AC38" s="32" t="n"/>
-      <c r="AD38" s="32" t="n"/>
-      <c r="AE38" s="33" t="n"/>
-      <c r="AG38" s="22" t="n"/>
-      <c r="AN38" s="52" t="n"/>
-      <c r="AO38" s="56" t="n"/>
-      <c r="AP38" s="56" t="n"/>
-      <c r="AQ38" s="56" t="n"/>
-      <c r="AR38" s="56" t="n"/>
-      <c r="AS38" s="52" t="n"/>
-      <c r="AT38" s="51" t="n"/>
-      <c r="AU38" s="52" t="n"/>
-      <c r="AV38" s="52" t="n"/>
-      <c r="AW38" s="52" t="n"/>
-      <c r="AX38" s="52" t="n"/>
-      <c r="AY38" s="52" t="n"/>
-      <c r="AZ38" s="52" t="n"/>
     </row>
     <row r="39" ht="20.15" customHeight="1" s="48">
       <c r="B39" s="34" t="n"/>
@@ -2611,24 +1721,6 @@
       <c r="Q39" s="35" t="n"/>
       <c r="R39" s="36" t="n"/>
       <c r="T39" s="22" t="n"/>
-      <c r="AB39" s="34" t="n"/>
-      <c r="AC39" s="35" t="n"/>
-      <c r="AD39" s="35" t="n"/>
-      <c r="AE39" s="36" t="n"/>
-      <c r="AG39" s="22" t="n"/>
-      <c r="AN39" s="52" t="n"/>
-      <c r="AO39" s="56" t="n"/>
-      <c r="AP39" s="56" t="n"/>
-      <c r="AQ39" s="56" t="n"/>
-      <c r="AR39" s="56" t="n"/>
-      <c r="AS39" s="52" t="n"/>
-      <c r="AT39" s="51" t="n"/>
-      <c r="AU39" s="52" t="n"/>
-      <c r="AV39" s="52" t="n"/>
-      <c r="AW39" s="52" t="n"/>
-      <c r="AX39" s="52" t="n"/>
-      <c r="AY39" s="52" t="n"/>
-      <c r="AZ39" s="52" t="n"/>
     </row>
     <row r="40" ht="20.15" customHeight="1" s="48">
       <c r="B40" s="34" t="n"/>
@@ -2641,24 +1733,6 @@
       <c r="Q40" s="35" t="n"/>
       <c r="R40" s="36" t="n"/>
       <c r="T40" s="22" t="n"/>
-      <c r="AB40" s="34" t="n"/>
-      <c r="AC40" s="35" t="n"/>
-      <c r="AD40" s="35" t="n"/>
-      <c r="AE40" s="36" t="n"/>
-      <c r="AG40" s="22" t="n"/>
-      <c r="AN40" s="52" t="n"/>
-      <c r="AO40" s="56" t="n"/>
-      <c r="AP40" s="56" t="n"/>
-      <c r="AQ40" s="56" t="n"/>
-      <c r="AR40" s="56" t="n"/>
-      <c r="AS40" s="52" t="n"/>
-      <c r="AT40" s="51" t="n"/>
-      <c r="AU40" s="52" t="n"/>
-      <c r="AV40" s="52" t="n"/>
-      <c r="AW40" s="52" t="n"/>
-      <c r="AX40" s="52" t="n"/>
-      <c r="AY40" s="52" t="n"/>
-      <c r="AZ40" s="52" t="n"/>
     </row>
     <row r="41" ht="20.15" customHeight="1" s="48">
       <c r="B41" s="37" t="n"/>
@@ -2671,24 +1745,6 @@
       <c r="Q41" s="38" t="n"/>
       <c r="R41" s="39" t="n"/>
       <c r="T41" s="22" t="n"/>
-      <c r="AB41" s="37" t="n"/>
-      <c r="AC41" s="38" t="n"/>
-      <c r="AD41" s="38" t="n"/>
-      <c r="AE41" s="39" t="n"/>
-      <c r="AG41" s="22" t="n"/>
-      <c r="AN41" s="52" t="n"/>
-      <c r="AO41" s="56" t="n"/>
-      <c r="AP41" s="56" t="n"/>
-      <c r="AQ41" s="56" t="n"/>
-      <c r="AR41" s="56" t="n"/>
-      <c r="AS41" s="52" t="n"/>
-      <c r="AT41" s="51" t="n"/>
-      <c r="AU41" s="52" t="n"/>
-      <c r="AV41" s="52" t="n"/>
-      <c r="AW41" s="52" t="n"/>
-      <c r="AX41" s="52" t="n"/>
-      <c r="AY41" s="52" t="n"/>
-      <c r="AZ41" s="52" t="n"/>
     </row>
     <row r="42" ht="9.4" customHeight="1" s="48">
       <c r="A42" s="19" t="n"/>
@@ -2717,44 +1773,15 @@
       <c r="X42" s="19" t="n"/>
       <c r="Y42" s="19" t="n"/>
       <c r="Z42" s="19" t="n"/>
-      <c r="AA42" s="19" t="n"/>
-      <c r="AB42" s="30" t="n"/>
-      <c r="AC42" s="19" t="n"/>
-      <c r="AD42" s="19" t="n"/>
-      <c r="AE42" s="19" t="n"/>
-      <c r="AF42" s="19" t="n"/>
-      <c r="AG42" s="30" t="n"/>
-      <c r="AH42" s="19" t="n"/>
-      <c r="AI42" s="19" t="n"/>
-      <c r="AJ42" s="19" t="n"/>
-      <c r="AK42" s="19" t="n"/>
-      <c r="AL42" s="19" t="n"/>
-      <c r="AM42" s="19" t="n"/>
-      <c r="AN42" s="54" t="n"/>
-      <c r="AO42" s="51" t="n"/>
-      <c r="AP42" s="54" t="n"/>
-      <c r="AQ42" s="54" t="n"/>
-      <c r="AR42" s="54" t="n"/>
-      <c r="AS42" s="54" t="n"/>
-      <c r="AT42" s="51" t="n"/>
-      <c r="AU42" s="54" t="n"/>
-      <c r="AV42" s="54" t="n"/>
-      <c r="AW42" s="54" t="n"/>
-      <c r="AX42" s="54" t="n"/>
-      <c r="AY42" s="54" t="n"/>
-      <c r="AZ42" s="54" t="n"/>
     </row>
     <row r="43" ht="9.4" customHeight="1" s="48">
       <c r="G43" s="22" t="n"/>
       <c r="T43" s="22" t="n"/>
-      <c r="AG43" s="22" t="n"/>
-      <c r="AT43" s="22" t="n"/>
     </row>
     <row r="44"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="1.102362204724409" right="1.102362204724409" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>